--- a/6月/途礼商城/开发环境/基础测试/途礼商城 （购物车-王倩）.xlsx
+++ b/6月/途礼商城/开发环境/基础测试/途礼商城 （购物车-王倩）.xlsx
@@ -1046,9 +1046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1872,10 +1872,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
